--- a/data/aad/Gruppen-Premium.xlsx
+++ b/data/aad/Gruppen-Premium.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519A4F2-447E-4E22-820D-487543A8A245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF07F74-20F3-4A82-87F9-22DCB3066535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="1680" windowWidth="26916" windowHeight="14316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="30804" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$147</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="282">
   <si>
     <t>Type</t>
   </si>
@@ -868,6 +868,12 @@
   </si>
   <si>
     <t>Disables several things for service accounts (MFA, password reset, …)</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-LEGACYAUTHENABLED</t>
+  </si>
+  <si>
+    <t>Legacy Auth is not blocked by conditional Access for members in this group</t>
   </si>
 </sst>
 </file>
@@ -984,13 +990,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>699246</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1694329</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1345,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T146"/>
+  <dimension ref="A1:T147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1676,19 +1682,19 @@
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -1698,19 +1704,19 @@
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
@@ -1720,16 +1726,16 @@
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
         <v>150</v>
@@ -1738,22 +1744,20 @@
       <c r="G15" t="s">
         <v>8</v>
       </c>
-      <c r="R15" t="s">
-        <v>149</v>
-      </c>
+      <c r="R15"/>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
         <v>150</v>
@@ -1766,74 +1770,51 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F17"/>
       <c r="G17" t="s">
         <v>8</v>
       </c>
       <c r="R17" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
+      <c r="R18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -1844,22 +1825,22 @@
         <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1885,28 +1866,28 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1929,48 +1910,72 @@
       <c r="P20" t="b">
         <v>1</v>
       </c>
-      <c r="S20" t="s">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
         <v>171</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>175</v>
@@ -1987,13 +1992,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>175</v>
@@ -2001,28 +2006,28 @@
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="Q23" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2033,19 +2038,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2056,19 +2061,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2079,19 +2084,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2102,19 +2107,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2125,19 +2130,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2148,19 +2153,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2171,19 +2176,19 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2194,19 +2199,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2217,19 +2222,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2240,19 +2245,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2263,19 +2268,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2286,19 +2291,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2309,19 +2314,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2332,19 +2337,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2355,19 +2360,19 @@
         <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2378,19 +2383,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2401,19 +2406,19 @@
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2424,19 +2429,19 @@
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2447,19 +2452,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2470,19 +2475,19 @@
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2493,19 +2498,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2516,19 +2521,19 @@
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2539,19 +2544,19 @@
         <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2562,19 +2567,19 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2585,19 +2590,19 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2608,19 +2613,19 @@
         <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2631,19 +2636,19 @@
         <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2654,19 +2659,19 @@
         <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2677,19 +2682,19 @@
         <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2700,42 +2705,42 @@
         <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="G55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2746,10 +2751,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>31</v>
@@ -2758,7 +2763,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2769,10 +2774,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>31</v>
@@ -2781,7 +2786,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2792,10 +2797,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>31</v>
@@ -2804,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2815,10 +2820,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>31</v>
@@ -2827,7 +2832,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2838,10 +2843,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>31</v>
@@ -2850,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2861,10 +2866,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>31</v>
@@ -2873,10 +2878,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2887,10 +2889,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>31</v>
@@ -2899,7 +2901,10 @@
         <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2910,10 +2915,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>31</v>
@@ -2922,7 +2927,7 @@
         <v>8</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2933,10 +2938,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>31</v>
@@ -2945,7 +2950,7 @@
         <v>8</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2956,10 +2961,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>31</v>
@@ -2968,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2979,10 +2984,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>31</v>
@@ -2991,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3002,10 +3007,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>31</v>
@@ -3014,7 +3019,7 @@
         <v>8</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3025,10 +3030,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>31</v>
@@ -3037,10 +3042,7 @@
         <v>8</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3051,10 +3053,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>31</v>
@@ -3063,7 +3065,7 @@
         <v>8</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>160</v>
@@ -3077,10 +3079,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>31</v>
@@ -3089,7 +3091,7 @@
         <v>8</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="R70" s="3" t="s">
         <v>160</v>
@@ -3103,10 +3105,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>31</v>
@@ -3115,7 +3117,10 @@
         <v>8</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3126,10 +3131,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>31</v>
@@ -3138,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3149,10 +3154,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>31</v>
@@ -3161,7 +3166,7 @@
         <v>8</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3172,10 +3177,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>31</v>
@@ -3184,7 +3189,7 @@
         <v>8</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3195,10 +3200,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>31</v>
@@ -3207,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3218,10 +3223,10 @@
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>31</v>
@@ -3230,7 +3235,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3241,10 +3246,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>31</v>
@@ -3253,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3264,10 +3269,10 @@
         <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>31</v>
@@ -3276,7 +3281,7 @@
         <v>8</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3287,10 +3292,10 @@
         <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>31</v>
@@ -3299,7 +3304,7 @@
         <v>8</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3310,10 +3315,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>31</v>
@@ -3322,7 +3327,7 @@
         <v>8</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3333,10 +3338,10 @@
         <v>12</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>31</v>
@@ -3345,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3356,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>203</v>
@@ -3368,33 +3373,30 @@
         <v>8</v>
       </c>
       <c r="I82" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R83" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3405,10 +3407,10 @@
         <v>190</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>31</v>
@@ -3417,10 +3419,10 @@
         <v>8</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3431,10 +3433,10 @@
         <v>190</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>31</v>
@@ -3443,10 +3445,10 @@
         <v>8</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3457,10 +3459,10 @@
         <v>190</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>31</v>
@@ -3469,10 +3471,10 @@
         <v>8</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3483,10 +3485,10 @@
         <v>190</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>31</v>
@@ -3495,10 +3497,10 @@
         <v>8</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3509,10 +3511,10 @@
         <v>190</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>31</v>
@@ -3521,10 +3523,10 @@
         <v>8</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3535,10 +3537,10 @@
         <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>31</v>
@@ -3547,10 +3549,10 @@
         <v>8</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3561,10 +3563,10 @@
         <v>190</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>31</v>
@@ -3573,10 +3575,10 @@
         <v>8</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3587,10 +3589,10 @@
         <v>190</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>31</v>
@@ -3599,10 +3601,10 @@
         <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3613,10 +3615,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>31</v>
@@ -3625,10 +3627,10 @@
         <v>8</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3639,10 +3641,10 @@
         <v>190</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>31</v>
@@ -3651,10 +3653,10 @@
         <v>8</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3665,10 +3667,10 @@
         <v>190</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>31</v>
@@ -3677,10 +3679,10 @@
         <v>8</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3691,10 +3693,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>31</v>
@@ -3703,10 +3705,10 @@
         <v>8</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3717,10 +3719,10 @@
         <v>190</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>31</v>
@@ -3729,10 +3731,10 @@
         <v>8</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3743,10 +3745,10 @@
         <v>190</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>31</v>
@@ -3755,10 +3757,10 @@
         <v>8</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3769,10 +3771,10 @@
         <v>190</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -3781,10 +3783,10 @@
         <v>8</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3795,10 +3797,10 @@
         <v>190</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>31</v>
@@ -3807,10 +3809,10 @@
         <v>8</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3821,10 +3823,10 @@
         <v>190</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>31</v>
@@ -3833,10 +3835,10 @@
         <v>8</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3847,10 +3849,10 @@
         <v>190</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>31</v>
@@ -3859,10 +3861,10 @@
         <v>8</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3873,10 +3875,10 @@
         <v>190</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>31</v>
@@ -3885,10 +3887,10 @@
         <v>8</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3899,10 +3901,10 @@
         <v>190</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>31</v>
@@ -3911,10 +3913,10 @@
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3925,10 +3927,10 @@
         <v>190</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>31</v>
@@ -3937,10 +3939,10 @@
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3951,10 +3953,10 @@
         <v>190</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>31</v>
@@ -3963,10 +3965,10 @@
         <v>8</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3977,10 +3979,10 @@
         <v>190</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>31</v>
@@ -3989,10 +3991,10 @@
         <v>8</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4003,10 +4005,10 @@
         <v>190</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>31</v>
@@ -4015,10 +4017,10 @@
         <v>8</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4029,10 +4031,10 @@
         <v>190</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>31</v>
@@ -4041,10 +4043,10 @@
         <v>8</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4055,10 +4057,10 @@
         <v>190</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>31</v>
@@ -4067,10 +4069,10 @@
         <v>8</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4081,7 +4083,7 @@
         <v>190</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>230</v>
@@ -4093,36 +4095,36 @@
         <v>8</v>
       </c>
       <c r="I110" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="R110" s="6" t="s">
+      <c r="R111" s="6" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R111" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4133,10 +4135,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>31</v>
@@ -4145,10 +4147,10 @@
         <v>8</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4159,10 +4161,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>31</v>
@@ -4171,10 +4173,10 @@
         <v>8</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4185,10 +4187,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>31</v>
@@ -4197,10 +4199,10 @@
         <v>8</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4211,10 +4213,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>31</v>
@@ -4223,10 +4225,10 @@
         <v>8</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4237,10 +4239,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>31</v>
@@ -4249,10 +4251,10 @@
         <v>8</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4263,10 +4265,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>31</v>
@@ -4275,10 +4277,10 @@
         <v>8</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4289,10 +4291,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>31</v>
@@ -4301,10 +4303,10 @@
         <v>8</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4315,10 +4317,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>31</v>
@@ -4327,10 +4329,10 @@
         <v>8</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4341,10 +4343,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>31</v>
@@ -4353,10 +4355,10 @@
         <v>8</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4367,10 +4369,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>31</v>
@@ -4379,10 +4381,10 @@
         <v>8</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4393,10 +4395,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>31</v>
@@ -4405,10 +4407,10 @@
         <v>8</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4419,10 +4421,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>31</v>
@@ -4431,10 +4433,10 @@
         <v>8</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4445,10 +4447,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>31</v>
@@ -4457,10 +4459,10 @@
         <v>8</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4471,10 +4473,10 @@
         <v>12</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>31</v>
@@ -4483,10 +4485,10 @@
         <v>8</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R125" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4497,10 +4499,10 @@
         <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>31</v>
@@ -4509,10 +4511,10 @@
         <v>8</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4523,10 +4525,10 @@
         <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>31</v>
@@ -4535,10 +4537,10 @@
         <v>8</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4549,10 +4551,10 @@
         <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>31</v>
@@ -4561,10 +4563,10 @@
         <v>8</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="R128" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4575,10 +4577,10 @@
         <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>31</v>
@@ -4587,10 +4589,10 @@
         <v>8</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4601,10 +4603,10 @@
         <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>31</v>
@@ -4613,10 +4615,10 @@
         <v>8</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="R130" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4627,10 +4629,10 @@
         <v>12</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>31</v>
@@ -4639,10 +4641,10 @@
         <v>8</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R131" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4653,10 +4655,10 @@
         <v>12</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>31</v>
@@ -4665,10 +4667,10 @@
         <v>8</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R132" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4679,10 +4681,10 @@
         <v>12</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>31</v>
@@ -4691,10 +4693,10 @@
         <v>8</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R133" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4705,10 +4707,10 @@
         <v>12</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>31</v>
@@ -4717,10 +4719,10 @@
         <v>8</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="R134" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4731,10 +4733,10 @@
         <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>31</v>
@@ -4743,10 +4745,10 @@
         <v>8</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="R135" s="3" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4757,10 +4759,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>31</v>
@@ -4769,10 +4771,10 @@
         <v>8</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="R136" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4783,10 +4785,10 @@
         <v>12</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>31</v>
@@ -4795,10 +4797,10 @@
         <v>8</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="R137" s="3" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4809,7 +4811,7 @@
         <v>12</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>256</v>
@@ -4821,30 +4823,36 @@
         <v>8</v>
       </c>
       <c r="I138" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I139" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="R138" s="3" t="s">
+      <c r="R139" s="3" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4855,10 +4863,10 @@
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>36</v>
@@ -4875,10 +4883,10 @@
         <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>36</v>
@@ -4895,10 +4903,10 @@
         <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>36</v>
@@ -4915,13 +4923,13 @@
         <v>12</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>8</v>
@@ -4935,10 +4943,10 @@
         <v>12</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>37</v>
@@ -4955,10 +4963,10 @@
         <v>12</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>37</v>
@@ -4975,10 +4983,10 @@
         <v>12</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>37</v>
@@ -4987,15 +4995,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="147" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T146" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="J1:P1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T20" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
+    <hyperlink ref="T21" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/data/aad/Gruppen-Premium.xlsx
+++ b/data/aad/Gruppen-Premium.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF07F74-20F3-4A82-87F9-22DCB3066535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34329B46-DC35-438A-B570-4E171DD578F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="30804" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="30960" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$189</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="338">
   <si>
     <t>Type</t>
   </si>
@@ -874,6 +874,174 @@
   </si>
   <si>
     <t>Legacy Auth is not blocked by conditional Access for members in this group</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365BCP</t>
+  </si>
+  <si>
+    <t>DYN365_BUSCENTRAL_PREMIUM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365SALES</t>
+  </si>
+  <si>
+    <t>DYN365_ENTERPRISE_SALES</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365TEAM</t>
+  </si>
+  <si>
+    <t>DYN365_TEAM_MEMBERS</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHP2</t>
+  </si>
+  <si>
+    <t>EXCHANGEENTERPRISE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-OFFICEAPPS</t>
+  </si>
+  <si>
+    <t>OFFICESUBSCRIPTION</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-TEAMSPREM</t>
+  </si>
+  <si>
+    <t>Microsoft_Teams_Premium</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSAPPS</t>
+  </si>
+  <si>
+    <t>O365_BUSINESS</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIPREM</t>
+  </si>
+  <si>
+    <t>PBI_PREMIUM_PER_USER</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PAPPSPREM</t>
+  </si>
+  <si>
+    <t>POWERAPPS_PER_USER</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PAUTOPREM</t>
+  </si>
+  <si>
+    <t>POWERAUTOMATE_ATTENDED_RPA</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PROJECT5</t>
+  </si>
+  <si>
+    <t>PROJECTPREMIUM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-A3LEHR</t>
+  </si>
+  <si>
+    <t>M365EDU_A3_FACULTY</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-A3STUD</t>
+  </si>
+  <si>
+    <t>M365EDU_A3_STUUSEBNFT</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-RMADHOC</t>
+  </si>
+  <si>
+    <t>RIGHTSMANAGEMENT_ADHOC</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365BCPONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365SALESONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365TEAMONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHP2ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-OFFICEAPPSONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-TEAMSPREMONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSAPPSONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIPREMONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PAPPSPREMONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PAUTOPREMONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PROJECT5ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-A3LEHRONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-A3STUDONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-RMADHOCONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365BCPCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365SALESCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365TEAMCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHP2CLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-OFFICEAPPSCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-TEAMSPREMCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSAPPSCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIPREMCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PAPPSPREMCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PAUTOPREMCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PROJECT5CLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-A3LEHRCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-A3STUDCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-RMADHOCCLOUD</t>
   </si>
 </sst>
 </file>
@@ -990,13 +1158,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>699246</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1694329</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1351,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T147"/>
+  <dimension ref="A1:T189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2582,7 +2750,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
@@ -2605,7 +2773,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
@@ -2628,7 +2796,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
@@ -2651,7 +2819,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -2674,7 +2842,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -2697,7 +2865,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -2720,7 +2888,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
@@ -2743,7 +2911,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>23</v>
       </c>
@@ -2766,7 +2934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>23</v>
       </c>
@@ -2789,7 +2957,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>23</v>
       </c>
@@ -2812,7 +2980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>23</v>
       </c>
@@ -2835,7 +3003,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>23</v>
       </c>
@@ -2858,7 +3026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>23</v>
       </c>
@@ -2881,7 +3049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>23</v>
       </c>
@@ -2889,10 +3057,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>31</v>
@@ -2901,13 +3069,10 @@
         <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>23</v>
       </c>
@@ -2915,10 +3080,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>31</v>
@@ -2927,10 +3092,10 @@
         <v>8</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>23</v>
       </c>
@@ -2938,10 +3103,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>31</v>
@@ -2950,7 +3115,7 @@
         <v>8</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>85</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2961,10 +3126,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>31</v>
@@ -2973,7 +3138,10 @@
         <v>8</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2984,10 +3152,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>31</v>
@@ -2996,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3007,10 +3175,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>31</v>
@@ -3019,7 +3187,7 @@
         <v>8</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3030,10 +3198,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>31</v>
@@ -3042,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3053,10 +3221,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>31</v>
@@ -3065,10 +3233,7 @@
         <v>8</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3079,10 +3244,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>31</v>
@@ -3091,10 +3256,7 @@
         <v>8</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R70" s="3" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3105,10 +3267,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>31</v>
@@ -3117,10 +3279,7 @@
         <v>8</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R71" s="3" t="s">
-        <v>160</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3131,10 +3290,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>31</v>
@@ -3143,7 +3302,7 @@
         <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3154,10 +3313,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>31</v>
@@ -3166,7 +3325,7 @@
         <v>8</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3177,10 +3336,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>31</v>
@@ -3189,7 +3348,10 @@
         <v>8</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>34</v>
+        <v>145</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3200,10 +3362,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>31</v>
@@ -3212,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3223,10 +3385,10 @@
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>31</v>
@@ -3235,7 +3397,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3246,10 +3408,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>31</v>
@@ -3258,7 +3420,10 @@
         <v>8</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3269,10 +3434,10 @@
         <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>31</v>
@@ -3281,7 +3446,10 @@
         <v>8</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>92</v>
+        <v>43</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3292,10 +3460,10 @@
         <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>31</v>
@@ -3304,7 +3472,7 @@
         <v>8</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3315,10 +3483,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>31</v>
@@ -3327,7 +3495,7 @@
         <v>8</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3338,10 +3506,10 @@
         <v>12</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>31</v>
@@ -3350,7 +3518,7 @@
         <v>8</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3361,10 +3529,10 @@
         <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>31</v>
@@ -3373,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3384,383 +3552,347 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
+      <c r="E94" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R84" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="R85" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R86" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="R88" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R90" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R91" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R92" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R93" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R94" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R96" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="R97" s="6" t="s">
-        <v>146</v>
+    <row r="95" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3771,10 +3903,10 @@
         <v>190</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -3783,10 +3915,10 @@
         <v>8</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3797,10 +3929,10 @@
         <v>190</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>31</v>
@@ -3809,10 +3941,10 @@
         <v>8</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3823,10 +3955,10 @@
         <v>190</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>31</v>
@@ -3835,10 +3967,10 @@
         <v>8</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3849,10 +3981,10 @@
         <v>190</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>31</v>
@@ -3861,10 +3993,10 @@
         <v>8</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3875,10 +4007,10 @@
         <v>190</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>31</v>
@@ -3887,10 +4019,10 @@
         <v>8</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3901,10 +4033,10 @@
         <v>190</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>31</v>
@@ -3913,10 +4045,10 @@
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3927,10 +4059,10 @@
         <v>190</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>31</v>
@@ -3939,10 +4071,10 @@
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3953,10 +4085,10 @@
         <v>190</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>31</v>
@@ -3965,10 +4097,10 @@
         <v>8</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>133</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3979,10 +4111,10 @@
         <v>190</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>31</v>
@@ -3991,10 +4123,10 @@
         <v>8</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4005,10 +4137,10 @@
         <v>190</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>31</v>
@@ -4017,10 +4149,10 @@
         <v>8</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4031,10 +4163,10 @@
         <v>190</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>31</v>
@@ -4043,10 +4175,10 @@
         <v>8</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>262</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4057,10 +4189,10 @@
         <v>190</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>31</v>
@@ -4069,10 +4201,10 @@
         <v>8</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4083,10 +4215,10 @@
         <v>190</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>31</v>
@@ -4095,10 +4227,10 @@
         <v>8</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="R110" s="6" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4109,914 +4241,2006 @@
         <v>190</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R111" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="R113" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R120" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R124" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="R125" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="R126" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R127" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R128" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R129" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R130" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R131" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="R132" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="R133" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R134" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="R135" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="6" t="s">
+      <c r="E136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="R111" s="6" t="s">
+      <c r="R136" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="3" t="s">
+    <row r="137" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="R137" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="R138" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="R139" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I112" s="3" t="s">
+      <c r="E140" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R112" s="3" t="s">
+      <c r="R140" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="3" t="s">
+    <row r="141" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="3" t="s">
+      <c r="E141" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R113" s="3" t="s">
+      <c r="R141" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="3" t="s">
+    <row r="142" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I114" s="3" t="s">
+      <c r="E142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R114" s="3" t="s">
+      <c r="R142" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="3" t="s">
+    <row r="143" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I115" s="3" t="s">
+      <c r="E143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R115" s="3" t="s">
+      <c r="R143" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="3" t="s">
+    <row r="144" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I116" s="3" t="s">
+      <c r="E144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="R116" s="3" t="s">
+      <c r="R144" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="3" t="s">
+    <row r="145" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I117" s="3" t="s">
+      <c r="E145" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R117" s="3" t="s">
+      <c r="R145" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="3" t="s">
+    <row r="146" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="R146" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="R147" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="R148" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="3" t="s">
+      <c r="E149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R118" s="3" t="s">
+      <c r="R149" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="3" t="s">
+    <row r="150" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I119" s="3" t="s">
+      <c r="E150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R119" s="3" t="s">
+      <c r="R150" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="3" t="s">
+    <row r="151" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I120" s="3" t="s">
+      <c r="E151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R120" s="3" t="s">
+      <c r="R151" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="3" t="s">
+    <row r="152" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="R152" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I121" s="3" t="s">
+      <c r="E153" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R121" s="3" t="s">
+      <c r="R153" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="3" t="s">
+    <row r="154" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I122" s="3" t="s">
+      <c r="E154" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R122" s="3" t="s">
+      <c r="R154" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="3" t="s">
+    <row r="155" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="R155" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I123" s="3" t="s">
+      <c r="E156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R123" s="3" t="s">
+      <c r="R156" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="3" t="s">
+    <row r="157" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D157" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I124" s="3" t="s">
+      <c r="E157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R124" s="3" t="s">
+      <c r="R157" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="3" t="s">
+    <row r="158" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D158" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I125" s="3" t="s">
+      <c r="E158" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="R125" s="3" t="s">
+      <c r="R158" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="3" t="s">
+    <row r="159" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I126" s="3" t="s">
+      <c r="E161" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="R126" s="3" t="s">
+      <c r="R161" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="3" t="s">
+    <row r="162" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I127" s="3" t="s">
+      <c r="E162" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R127" s="3" t="s">
+      <c r="R162" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="3" t="s">
+    <row r="163" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I128" s="3" t="s">
+      <c r="E163" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R128" s="3" t="s">
+      <c r="R163" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="3" t="s">
+    <row r="164" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I129" s="3" t="s">
+      <c r="E164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R129" s="3" t="s">
+      <c r="R164" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="3" t="s">
+    <row r="165" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I130" s="3" t="s">
+      <c r="E165" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R130" s="3" t="s">
+      <c r="R165" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="3" t="s">
+    <row r="166" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I131" s="3" t="s">
+      <c r="E166" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R131" s="3" t="s">
+      <c r="R166" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="3" t="s">
+    <row r="167" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R167" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="R168" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="R169" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I132" s="3" t="s">
+      <c r="E170" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I170" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R132" s="3" t="s">
+      <c r="R170" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="3" t="s">
+    <row r="171" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" s="3" t="s">
+      <c r="E171" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I171" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R133" s="3" t="s">
+      <c r="R171" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="3" t="s">
+    <row r="172" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I134" s="3" t="s">
+      <c r="E172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="R134" s="3" t="s">
+      <c r="R172" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="3" t="s">
+    <row r="173" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I135" s="3" t="s">
+      <c r="E173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R135" s="3" t="s">
+      <c r="R173" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="3" t="s">
+    <row r="174" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I136" s="3" t="s">
+      <c r="E174" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I174" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="R136" s="3" t="s">
+      <c r="R174" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="3" t="s">
+    <row r="175" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="R175" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I137" s="3" t="s">
+      <c r="E176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I176" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R137" s="3" t="s">
+      <c r="R176" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="3" t="s">
+    <row r="177" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I138" s="3" t="s">
+      <c r="E177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I177" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="R138" s="3" t="s">
+      <c r="R177" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="3" t="s">
+    <row r="178" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I139" s="3" t="s">
+      <c r="E178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I178" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="R139" s="3" t="s">
+      <c r="R178" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="4" t="s">
+    <row r="179" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="R179" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="R181" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D182" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" s="4" t="s">
+      <c r="G182" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D183" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E183" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="G183" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D184" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E184" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="G184" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D185" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E185" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" s="4" t="s">
+      <c r="G185" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D186" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E186" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="4" t="s">
+      <c r="G186" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D187" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E187" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" s="4" t="s">
+      <c r="G187" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D188" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E188" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" s="4" t="s">
+      <c r="G188" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D189" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E189" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G189" s="4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="J1:P1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
@@ -5032,21 +6256,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -5230,10 +6439,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5255,19 +6489,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>